--- a/文档/产品归档/D-06-SFRJZ15_2501-2015 热量表检定装置上位机 YF-JL.01产品研发需求单.xlsx
+++ b/文档/产品归档/D-06-SFRJZ15_2501-2015 热量表检定装置上位机 YF-JL.01产品研发需求单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>产品研发需求单</t>
   </si>
@@ -98,22 +98,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   　产品缺陷改进□        产品功能升级□</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>编号：YF-JL.01-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D-06-SFRJZ15_2501-2015</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -153,6 +137,26 @@
       </rPr>
       <t xml:space="preserve"> 产品缺陷改进□        产品功能升级□</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号：YF-JL.01-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量院所、热量表生产厂家、科研院所、高校等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN15-DN25热量表检定装置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、设计开发一套全新的上位机软件架构，提高软件的可扩展性和可维护性
+2、受软件限制原有装置一次最多检定12块热量表，需要突破软件限制，增加被检表数量
+3、优化检定流程，压缩不必要的时间，提高检表效率
+4、原有数据分散存储在Excel中，数据不安全且容易人为造假，需要增加数据库，进行数据集中管理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +311,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,34 +332,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -765,28 +793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="27.9" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -815,70 +843,70 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.9" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="27.9" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="200.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="27.9" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="27.9" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -886,49 +914,55 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="27.9" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="27.9" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="68.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="27.9" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -950,17 +984,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/产品归档/D-06-SFRJZ15_2501-2015 热量表检定装置上位机 YF-JL.01产品研发需求单.xlsx
+++ b/文档/产品归档/D-06-SFRJZ15_2501-2015 热量表检定装置上位机 YF-JL.01产品研发需求单.xlsx
@@ -315,6 +315,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -323,15 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -352,27 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -793,28 +793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="27.9" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -839,30 +839,30 @@
         <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>42083</v>
+        <v>42078</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.9" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="27.9" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
@@ -872,37 +872,37 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="27.9" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="27.9" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,55 +914,55 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="27.9" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="27.9" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="68.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="27.9" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -984,17 +984,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
